--- a/GameDesign/HMtable/JStateTable.xlsx
+++ b/GameDesign/HMtable/JStateTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\용사관리사\기획\테이블\테이블\최종 - 복사본\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\github\Heros-Manager\GameDesign\HMtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CEEA5E-1490-4D25-B79E-A269CE6644BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458CCA33-6785-4C67-BA6A-51DCB582F07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{860F9E91-E528-4FD5-AA79-5B37A5C83CB7}"/>
   </bookViews>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여정 결과 normal 확률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,6 +106,10 @@
   </si>
   <si>
     <t>여정 결과 perfect     확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +540,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -560,30 +560,30 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
